--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H2">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I2">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J2">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.4927655384686</v>
+        <v>23.433081</v>
       </c>
       <c r="N2">
-        <v>16.4927655384686</v>
+        <v>70.29924299999999</v>
       </c>
       <c r="O2">
-        <v>0.1343057039925842</v>
+        <v>0.173071867147068</v>
       </c>
       <c r="P2">
-        <v>0.1343057039925842</v>
+        <v>0.1775303340800033</v>
       </c>
       <c r="Q2">
-        <v>799.0410173918415</v>
+        <v>1193.921077456359</v>
       </c>
       <c r="R2">
-        <v>799.0410173918415</v>
+        <v>10745.28969710723</v>
       </c>
       <c r="S2">
-        <v>0.02128058091079847</v>
+        <v>0.02630702968799481</v>
       </c>
       <c r="T2">
-        <v>0.02128058091079847</v>
+        <v>0.02735562209759427</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H3">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I3">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J3">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.3059136984668</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N3">
-        <v>40.3059136984668</v>
+        <v>124.30001</v>
       </c>
       <c r="O3">
-        <v>0.3282235536369342</v>
+        <v>0.3060180152594135</v>
       </c>
       <c r="P3">
-        <v>0.3282235536369342</v>
+        <v>0.3139012791567009</v>
       </c>
       <c r="Q3">
-        <v>1952.73971568998</v>
+        <v>2111.03840573413</v>
       </c>
       <c r="R3">
-        <v>1952.73971568998</v>
+        <v>18999.34565160717</v>
       </c>
       <c r="S3">
-        <v>0.0520066362213942</v>
+        <v>0.04651492553466118</v>
       </c>
       <c r="T3">
-        <v>0.0520066362213942</v>
+        <v>0.04836900022219569</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H4">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I4">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J4">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.2922522327936</v>
+        <v>30.91984733333334</v>
       </c>
       <c r="N4">
-        <v>27.2922522327936</v>
+        <v>92.75954200000001</v>
       </c>
       <c r="O4">
-        <v>0.2222492729384229</v>
+        <v>0.228367567622981</v>
       </c>
       <c r="P4">
-        <v>0.2222492729384229</v>
+        <v>0.2342504951350344</v>
       </c>
       <c r="Q4">
-        <v>1322.254229597874</v>
+        <v>1575.373611476846</v>
       </c>
       <c r="R4">
-        <v>1322.254229597874</v>
+        <v>14178.36250329162</v>
       </c>
       <c r="S4">
-        <v>0.03521513602574459</v>
+        <v>0.03471200998905211</v>
       </c>
       <c r="T4">
-        <v>0.03521513602574459</v>
+        <v>0.0360956230623696</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H5">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I5">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J5">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.5273345884835</v>
+        <v>29.40795633333333</v>
       </c>
       <c r="N5">
-        <v>28.5273345884835</v>
+        <v>88.22386900000001</v>
       </c>
       <c r="O5">
-        <v>0.2323069315453344</v>
+        <v>0.2172010548501686</v>
       </c>
       <c r="P5">
-        <v>0.2323069315453344</v>
+        <v>0.2227963242420754</v>
       </c>
       <c r="Q5">
-        <v>1382.091463065561</v>
+        <v>1498.342403684897</v>
       </c>
       <c r="R5">
-        <v>1382.091463065561</v>
+        <v>13485.08163316407</v>
       </c>
       <c r="S5">
-        <v>0.03680876020844785</v>
+        <v>0.03301469321615263</v>
       </c>
       <c r="T5">
-        <v>0.03680876020844785</v>
+        <v>0.03433065161671318</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H6">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I6">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J6">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.1819207408475</v>
+        <v>10.2008685</v>
       </c>
       <c r="N6">
-        <v>10.1819207408475</v>
+        <v>20.401737</v>
       </c>
       <c r="O6">
-        <v>0.08291453788672445</v>
+        <v>0.07534149512036896</v>
       </c>
       <c r="P6">
-        <v>0.08291453788672445</v>
+        <v>0.05152156738618599</v>
       </c>
       <c r="Q6">
-        <v>493.2933951430749</v>
+        <v>519.7366880825715</v>
       </c>
       <c r="R6">
-        <v>493.2933951430749</v>
+        <v>3118.420128495429</v>
       </c>
       <c r="S6">
-        <v>0.01313771105564758</v>
+        <v>0.01145195335059999</v>
       </c>
       <c r="T6">
-        <v>0.01313771105564758</v>
+        <v>0.007938950459345725</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H7">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I7">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J7">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.4927655384686</v>
+        <v>23.433081</v>
       </c>
       <c r="N7">
-        <v>16.4927655384686</v>
+        <v>70.29924299999999</v>
       </c>
       <c r="O7">
-        <v>0.1343057039925842</v>
+        <v>0.173071867147068</v>
       </c>
       <c r="P7">
-        <v>0.1343057039925842</v>
+        <v>0.1775303340800033</v>
       </c>
       <c r="Q7">
-        <v>225.0586178039585</v>
+        <v>356.1162187617439</v>
       </c>
       <c r="R7">
-        <v>225.0586178039585</v>
+        <v>3205.045968855695</v>
       </c>
       <c r="S7">
-        <v>0.005993907723889655</v>
+        <v>0.007846716266456139</v>
       </c>
       <c r="T7">
-        <v>0.005993907723889655</v>
+        <v>0.008159484648704987</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H8">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I8">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J8">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.3059136984668</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N8">
-        <v>40.3059136984668</v>
+        <v>124.30001</v>
       </c>
       <c r="O8">
-        <v>0.3282235536369342</v>
+        <v>0.3060180152594135</v>
       </c>
       <c r="P8">
-        <v>0.3282235536369342</v>
+        <v>0.3139012791567009</v>
       </c>
       <c r="Q8">
-        <v>550.0104397376197</v>
+        <v>629.668936168302</v>
       </c>
       <c r="R8">
-        <v>550.0104397376197</v>
+        <v>5667.020425514719</v>
       </c>
       <c r="S8">
-        <v>0.01464823633563291</v>
+        <v>0.01387421640354876</v>
       </c>
       <c r="T8">
-        <v>0.01464823633563291</v>
+        <v>0.01442723961378754</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H9">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I9">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J9">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.2922522327936</v>
+        <v>30.91984733333334</v>
       </c>
       <c r="N9">
-        <v>27.2922522327936</v>
+        <v>92.75954200000001</v>
       </c>
       <c r="O9">
-        <v>0.2222492729384229</v>
+        <v>0.228367567622981</v>
       </c>
       <c r="P9">
-        <v>0.2222492729384229</v>
+        <v>0.2342504951350344</v>
       </c>
       <c r="Q9">
-        <v>372.4273257837062</v>
+        <v>469.8937846473138</v>
       </c>
       <c r="R9">
-        <v>372.4273257837062</v>
+        <v>4229.044061825824</v>
       </c>
       <c r="S9">
-        <v>0.009918727158215321</v>
+        <v>0.01035370760792433</v>
       </c>
       <c r="T9">
-        <v>0.009918727158215321</v>
+        <v>0.0107664041129135</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H10">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I10">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J10">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.5273345884835</v>
+        <v>29.40795633333333</v>
       </c>
       <c r="N10">
-        <v>28.5273345884835</v>
+        <v>88.22386900000001</v>
       </c>
       <c r="O10">
-        <v>0.2323069315453344</v>
+        <v>0.2172010548501686</v>
       </c>
       <c r="P10">
-        <v>0.2323069315453344</v>
+        <v>0.2227963242420754</v>
       </c>
       <c r="Q10">
-        <v>389.2811352432103</v>
+        <v>446.9173392494631</v>
       </c>
       <c r="R10">
-        <v>389.2811352432103</v>
+        <v>4022.256053245168</v>
       </c>
       <c r="S10">
-        <v>0.01036758879116235</v>
+        <v>0.00984744128712731</v>
       </c>
       <c r="T10">
-        <v>0.01036758879116235</v>
+        <v>0.01023995812806775</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H11">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I11">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J11">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.1819207408475</v>
+        <v>10.2008685</v>
       </c>
       <c r="N11">
-        <v>10.1819207408475</v>
+        <v>20.401737</v>
       </c>
       <c r="O11">
-        <v>0.08291453788672445</v>
+        <v>0.07534149512036896</v>
       </c>
       <c r="P11">
-        <v>0.08291453788672445</v>
+        <v>0.05152156738618599</v>
       </c>
       <c r="Q11">
-        <v>138.9414651642086</v>
+        <v>155.024203531144</v>
       </c>
       <c r="R11">
-        <v>138.9414651642086</v>
+        <v>930.1452211868638</v>
       </c>
       <c r="S11">
-        <v>0.003700379613731226</v>
+        <v>0.003415825720524332</v>
       </c>
       <c r="T11">
-        <v>0.003700379613731226</v>
+        <v>0.002367986520970312</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H12">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I12">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J12">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.4927655384686</v>
+        <v>23.433081</v>
       </c>
       <c r="N12">
-        <v>16.4927655384686</v>
+        <v>70.29924299999999</v>
       </c>
       <c r="O12">
-        <v>0.1343057039925842</v>
+        <v>0.173071867147068</v>
       </c>
       <c r="P12">
-        <v>0.1343057039925842</v>
+        <v>0.1775303340800033</v>
       </c>
       <c r="Q12">
-        <v>1698.369002698073</v>
+        <v>2911.614210336299</v>
       </c>
       <c r="R12">
-        <v>1698.369002698073</v>
+        <v>26204.52789302669</v>
       </c>
       <c r="S12">
-        <v>0.04523206968308193</v>
+        <v>0.06415492859418456</v>
       </c>
       <c r="T12">
-        <v>0.04523206968308193</v>
+        <v>0.0667121299187019</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H13">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I13">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J13">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>40.3059136984668</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N13">
-        <v>40.3059136984668</v>
+        <v>124.30001</v>
       </c>
       <c r="O13">
-        <v>0.3282235536369342</v>
+        <v>0.3060180152594135</v>
       </c>
       <c r="P13">
-        <v>0.3282235536369342</v>
+        <v>0.3139012791567009</v>
       </c>
       <c r="Q13">
-        <v>4150.566155277792</v>
+        <v>5148.187377507666</v>
       </c>
       <c r="R13">
-        <v>4150.566155277792</v>
+        <v>46333.68639756899</v>
       </c>
       <c r="S13">
-        <v>0.1105405817354885</v>
+        <v>0.1134359052174491</v>
       </c>
       <c r="T13">
-        <v>0.1105405817354885</v>
+        <v>0.1179574354167078</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H14">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I14">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J14">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>27.2922522327936</v>
+        <v>30.91984733333334</v>
       </c>
       <c r="N14">
-        <v>27.2922522327936</v>
+        <v>92.75954200000001</v>
       </c>
       <c r="O14">
-        <v>0.2222492729384229</v>
+        <v>0.228367567622981</v>
       </c>
       <c r="P14">
-        <v>0.2222492729384229</v>
+        <v>0.2342504951350344</v>
       </c>
       <c r="Q14">
-        <v>2810.463478540293</v>
+        <v>3841.862146815533</v>
       </c>
       <c r="R14">
-        <v>2810.463478540293</v>
+        <v>34576.7593213398</v>
       </c>
       <c r="S14">
-        <v>0.07485009423814279</v>
+        <v>0.08465214616093752</v>
       </c>
       <c r="T14">
-        <v>0.07485009423814279</v>
+        <v>0.08802636206343342</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H15">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I15">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J15">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>28.5273345884835</v>
+        <v>29.40795633333333</v>
       </c>
       <c r="N15">
-        <v>28.5273345884835</v>
+        <v>88.22386900000001</v>
       </c>
       <c r="O15">
-        <v>0.2323069315453344</v>
+        <v>0.2172010548501686</v>
       </c>
       <c r="P15">
-        <v>0.2323069315453344</v>
+        <v>0.2227963242420754</v>
       </c>
       <c r="Q15">
-        <v>2937.648066461005</v>
+        <v>3654.006212716233</v>
       </c>
       <c r="R15">
-        <v>2937.648066461005</v>
+        <v>32886.0559144461</v>
       </c>
       <c r="S15">
-        <v>0.0782373570381024</v>
+        <v>0.08051290134088206</v>
       </c>
       <c r="T15">
-        <v>0.0782373570381024</v>
+        <v>0.08372212785646267</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H16">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I16">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J16">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.1819207408475</v>
+        <v>10.2008685</v>
       </c>
       <c r="N16">
-        <v>10.1819207408475</v>
+        <v>20.401737</v>
       </c>
       <c r="O16">
-        <v>0.08291453788672445</v>
+        <v>0.07534149512036896</v>
       </c>
       <c r="P16">
-        <v>0.08291453788672445</v>
+        <v>0.05152156738618599</v>
       </c>
       <c r="Q16">
-        <v>1048.499630571336</v>
+        <v>1267.48137312255</v>
       </c>
       <c r="R16">
-        <v>1048.499630571336</v>
+        <v>7604.888238735299</v>
       </c>
       <c r="S16">
-        <v>0.02792432520691704</v>
+        <v>0.02792786788114488</v>
       </c>
       <c r="T16">
-        <v>0.02792432520691704</v>
+        <v>0.01936071102943723</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H17">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I17">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J17">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.4927655384686</v>
+        <v>23.433081</v>
       </c>
       <c r="N17">
-        <v>16.4927655384686</v>
+        <v>70.29924299999999</v>
       </c>
       <c r="O17">
-        <v>0.1343057039925842</v>
+        <v>0.173071867147068</v>
       </c>
       <c r="P17">
-        <v>0.1343057039925842</v>
+        <v>0.1775303340800033</v>
       </c>
       <c r="Q17">
-        <v>2139.087414516345</v>
+        <v>3073.565161885337</v>
       </c>
       <c r="R17">
-        <v>2139.087414516345</v>
+        <v>27662.08645696803</v>
       </c>
       <c r="S17">
-        <v>0.05696956953282755</v>
+        <v>0.06772337928229569</v>
       </c>
       <c r="T17">
-        <v>0.05696956953282755</v>
+        <v>0.07042281826533861</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H18">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I18">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J18">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>40.3059136984668</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N18">
-        <v>40.3059136984668</v>
+        <v>124.30001</v>
       </c>
       <c r="O18">
-        <v>0.3282235536369342</v>
+        <v>0.3060180152594135</v>
       </c>
       <c r="P18">
-        <v>0.3282235536369342</v>
+        <v>0.3139012791567009</v>
       </c>
       <c r="Q18">
-        <v>5227.617680119999</v>
+        <v>5434.541882022811</v>
       </c>
       <c r="R18">
-        <v>5227.617680119999</v>
+        <v>48910.87693820531</v>
       </c>
       <c r="S18">
-        <v>0.1392253195907714</v>
+        <v>0.1197454817831132</v>
       </c>
       <c r="T18">
-        <v>0.1392253195907714</v>
+        <v>0.1245185103146811</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H19">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I19">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J19">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>27.2922522327936</v>
+        <v>30.91984733333334</v>
       </c>
       <c r="N19">
-        <v>27.2922522327936</v>
+        <v>92.75954200000001</v>
       </c>
       <c r="O19">
-        <v>0.2222492729384229</v>
+        <v>0.228367567622981</v>
       </c>
       <c r="P19">
-        <v>0.2222492729384229</v>
+        <v>0.2342504951350344</v>
       </c>
       <c r="Q19">
-        <v>3539.764942926316</v>
+        <v>4055.555715210756</v>
       </c>
       <c r="R19">
-        <v>3539.764942926316</v>
+        <v>36500.00143689681</v>
       </c>
       <c r="S19">
-        <v>0.09427332594142809</v>
+        <v>0.08936070115176116</v>
       </c>
       <c r="T19">
-        <v>0.09427332594142809</v>
+        <v>0.09292259901919636</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H20">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I20">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J20">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>28.5273345884835</v>
+        <v>29.40795633333333</v>
       </c>
       <c r="N20">
-        <v>28.5273345884835</v>
+        <v>88.22386900000001</v>
       </c>
       <c r="O20">
-        <v>0.2323069315453344</v>
+        <v>0.2172010548501686</v>
       </c>
       <c r="P20">
-        <v>0.2323069315453344</v>
+        <v>0.2227963242420754</v>
       </c>
       <c r="Q20">
-        <v>3699.953306532482</v>
+        <v>3857.250784409383</v>
       </c>
       <c r="R20">
-        <v>3699.953306532482</v>
+        <v>34715.25705968445</v>
       </c>
       <c r="S20">
-        <v>0.09853956679576679</v>
+        <v>0.08499122162721681</v>
       </c>
       <c r="T20">
-        <v>0.09853956679576679</v>
+        <v>0.08837895300312185</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H21">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I21">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J21">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.1819207408475</v>
+        <v>10.2008685</v>
       </c>
       <c r="N21">
-        <v>10.1819207408475</v>
+        <v>20.401737</v>
       </c>
       <c r="O21">
-        <v>0.08291453788672445</v>
+        <v>0.07534149512036896</v>
       </c>
       <c r="P21">
-        <v>0.08291453788672445</v>
+        <v>0.05152156738618599</v>
       </c>
       <c r="Q21">
-        <v>1320.580133243813</v>
+        <v>1337.981720908724</v>
       </c>
       <c r="R21">
-        <v>1320.580133243813</v>
+        <v>8027.890325452347</v>
       </c>
       <c r="S21">
-        <v>0.03517055040105244</v>
+        <v>0.02948128274017073</v>
       </c>
       <c r="T21">
-        <v>0.03517055040105244</v>
+        <v>0.02043760011822936</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H22">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I22">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J22">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.4927655384686</v>
+        <v>23.433081</v>
       </c>
       <c r="N22">
-        <v>16.4927655384686</v>
+        <v>70.29924299999999</v>
       </c>
       <c r="O22">
-        <v>0.1343057039925842</v>
+        <v>0.173071867147068</v>
       </c>
       <c r="P22">
-        <v>0.1343057039925842</v>
+        <v>0.1775303340800033</v>
       </c>
       <c r="Q22">
-        <v>181.3404178316465</v>
+        <v>319.4956480901849</v>
       </c>
       <c r="R22">
-        <v>181.3404178316465</v>
+        <v>1916.97388854111</v>
       </c>
       <c r="S22">
-        <v>0.00482957614198662</v>
+        <v>0.007039813316136773</v>
       </c>
       <c r="T22">
-        <v>0.00482957614198662</v>
+        <v>0.004880279149663496</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H23">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I23">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J23">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>40.3059136984668</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N23">
-        <v>40.3059136984668</v>
+        <v>124.30001</v>
       </c>
       <c r="O23">
-        <v>0.3282235536369342</v>
+        <v>0.3060180152594135</v>
       </c>
       <c r="P23">
-        <v>0.3282235536369342</v>
+        <v>0.3139012791567009</v>
       </c>
       <c r="Q23">
-        <v>443.1695347950071</v>
+        <v>564.9180639479499</v>
       </c>
       <c r="R23">
-        <v>443.1695347950071</v>
+        <v>3389.5083836877</v>
       </c>
       <c r="S23">
-        <v>0.01180277975364717</v>
+        <v>0.01244748632064123</v>
       </c>
       <c r="T23">
-        <v>0.01180277975364717</v>
+        <v>0.008629093589328752</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H24">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I24">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J24">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>27.2922522327936</v>
+        <v>30.91984733333334</v>
       </c>
       <c r="N24">
-        <v>27.2922522327936</v>
+        <v>92.75954200000001</v>
       </c>
       <c r="O24">
-        <v>0.2222492729384229</v>
+        <v>0.228367567622981</v>
       </c>
       <c r="P24">
-        <v>0.2222492729384229</v>
+        <v>0.2342504951350344</v>
       </c>
       <c r="Q24">
-        <v>300.0823853293572</v>
+        <v>421.5731026838901</v>
       </c>
       <c r="R24">
-        <v>300.0823853293572</v>
+        <v>2529.43861610334</v>
       </c>
       <c r="S24">
-        <v>0.007991989574892118</v>
+        <v>0.009289002713305865</v>
       </c>
       <c r="T24">
-        <v>0.007991989574892118</v>
+        <v>0.0064395068771215</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H25">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I25">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J25">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>28.5273345884835</v>
+        <v>29.40795633333333</v>
       </c>
       <c r="N25">
-        <v>28.5273345884835</v>
+        <v>88.22386900000001</v>
       </c>
       <c r="O25">
-        <v>0.2323069315453344</v>
+        <v>0.2172010548501686</v>
       </c>
       <c r="P25">
-        <v>0.2323069315453344</v>
+        <v>0.2227963242420754</v>
       </c>
       <c r="Q25">
-        <v>313.6623001056208</v>
+        <v>400.959398711855</v>
       </c>
       <c r="R25">
-        <v>313.6623001056208</v>
+        <v>2405.75639227113</v>
       </c>
       <c r="S25">
-        <v>0.008353658711854969</v>
+        <v>0.008834797378789786</v>
       </c>
       <c r="T25">
-        <v>0.008353658711854969</v>
+        <v>0.006124633637709922</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H26">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I26">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J26">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.1819207408475</v>
+        <v>10.2008685</v>
       </c>
       <c r="N26">
-        <v>10.1819207408475</v>
+        <v>20.401737</v>
       </c>
       <c r="O26">
-        <v>0.08291453788672445</v>
+        <v>0.07534149512036896</v>
       </c>
       <c r="P26">
-        <v>0.08291453788672445</v>
+        <v>0.05152156738618599</v>
       </c>
       <c r="Q26">
-        <v>111.9517376978025</v>
+        <v>139.0825684633725</v>
       </c>
       <c r="R26">
-        <v>111.9517376978025</v>
+        <v>556.3302738534899</v>
       </c>
       <c r="S26">
-        <v>0.00298157160937618</v>
+        <v>0.003064565427929009</v>
       </c>
       <c r="T26">
-        <v>0.00298157160937618</v>
+        <v>0.001416319258203368</v>
       </c>
     </row>
   </sheetData>
